--- a/application/cake-shop/cakshop-restfull-api.xlsx
+++ b/application/cake-shop/cakshop-restfull-api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-diya\Repo\LucasNote\application\cake-shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5124AA47-B034-41CF-B690-10081B2A544A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82721A1-D945-4901-A9EB-57E072D944B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>GET api/goodsCategory/{id}/goods</t>
-  </si>
-  <si>
     <t>GET api/goods/{id}/deatil</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>更新商品分类，考虑商品创建时就应该指定category</t>
+  </si>
+  <si>
+    <t>GET api/goodsCategory/{id}/goods/detail</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,41 +768,41 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/application/cake-shop/cakshop-restfull-api.xlsx
+++ b/application/cake-shop/cakshop-restfull-api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-diya\Repo\LucasNote\application\cake-shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82721A1-D945-4901-A9EB-57E072D944B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C01019E-F849-4AA3-83C9-176538168296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>API</t>
   </si>
@@ -178,6 +178,21 @@
   </si>
   <si>
     <t>GET api/goodsCategory/{id}/goods/detail</t>
+  </si>
+  <si>
+    <t>via GET api/goodsCategory/{id}/goods/detail</t>
+  </si>
+  <si>
+    <t>Update goods status (OnShelf, OffShelf)</t>
+  </si>
+  <si>
+    <t>GET api/goods</t>
+  </si>
+  <si>
+    <t>POST api/order</t>
+  </si>
+  <si>
+    <t>GET api/order/{id}</t>
   </si>
 </sst>
 </file>
@@ -219,10 +234,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,8 +257,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03D4C068-9E2A-45BA-82BC-82377E533864}" name="Table1" displayName="Table1" ref="A1:C33" totalsRowShown="0">
-  <autoFilter ref="A1:C33" xr:uid="{03D4C068-9E2A-45BA-82BC-82377E533864}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03D4C068-9E2A-45BA-82BC-82377E533864}" name="Table1" displayName="Table1" ref="A1:C36" totalsRowShown="0">
+  <autoFilter ref="A1:C36" xr:uid="{03D4C068-9E2A-45BA-82BC-82377E533864}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{356B2D06-742F-494E-BFA6-0C77F2D827DF}" name="API"/>
     <tableColumn id="2" xr3:uid="{DC0678FD-050A-4BEE-920E-9E8FF761CE18}" name="IsCompleted"/>
@@ -515,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,64 +761,119 @@
       <c r="A22" t="s">
         <v>50</v>
       </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/application/cake-shop/cakshop-restfull-api.xlsx
+++ b/application/cake-shop/cakshop-restfull-api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-diya\Repo\LucasNote\application\cake-shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C01019E-F849-4AA3-83C9-176538168296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6680E3C-5734-48E8-9327-79B0962745F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>API</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>GET api/order/{id}</t>
+  </si>
+  <si>
+    <t>GET api/order</t>
+  </si>
+  <si>
+    <t>GET api/order/customer/{id}</t>
   </si>
 </sst>
 </file>
@@ -257,8 +263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03D4C068-9E2A-45BA-82BC-82377E533864}" name="Table1" displayName="Table1" ref="A1:C36" totalsRowShown="0">
-  <autoFilter ref="A1:C36" xr:uid="{03D4C068-9E2A-45BA-82BC-82377E533864}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03D4C068-9E2A-45BA-82BC-82377E533864}" name="Table1" displayName="Table1" ref="A1:C38" totalsRowShown="0">
+  <autoFilter ref="A1:C38" xr:uid="{03D4C068-9E2A-45BA-82BC-82377E533864}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{356B2D06-742F-494E-BFA6-0C77F2D827DF}" name="API"/>
     <tableColumn id="2" xr3:uid="{DC0678FD-050A-4BEE-920E-9E8FF761CE18}" name="IsCompleted"/>
@@ -531,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,10 +876,32 @@
       <c r="A35" t="s">
         <v>54</v>
       </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
